--- a/Downloads/04-01/Source133 - download.xlsx
+++ b/Downloads/04-01/Source133 - download.xlsx
@@ -20,13 +20,13 @@
     <t xml:space="preserve"> نسبة ملء السدود</t>
   </si>
   <si>
-    <t>2024/03/31</t>
+    <t>2024/04/01</t>
   </si>
   <si>
     <t>يوم</t>
   </si>
   <si>
-    <t>2025/03/31</t>
+    <t>2025/04/01</t>
   </si>
   <si>
     <t>نسبة</t>
@@ -1441,10 +1441,10 @@
     </row>
     <row r="9" spans="1:7" customHeight="1" ht="19">
       <c r="A9" s="45">
-        <v>82.007671741033</v>
+        <v>88.177612248629</v>
       </c>
       <c r="B9" s="46">
-        <v>551.796</v>
+        <v>593.311</v>
       </c>
       <c r="C9" s="47">
         <v>100</v>
@@ -1464,16 +1464,16 @@
     </row>
     <row r="10" spans="1:7" customHeight="1" ht="19">
       <c r="A10" s="35">
-        <v>63.214996909977</v>
+        <v>90.530797225846</v>
       </c>
       <c r="B10" s="52">
-        <v>18.412</v>
+        <v>26.368</v>
       </c>
       <c r="C10" s="53">
-        <v>48.853258257227</v>
+        <v>49.385428826478</v>
       </c>
       <c r="D10" s="54">
-        <v>14.229</v>
+        <v>14.384</v>
       </c>
       <c r="E10" s="55">
         <v>29.126</v>
@@ -1487,16 +1487,16 @@
     </row>
     <row r="11" spans="1:7" customHeight="1" ht="19">
       <c r="A11" s="35">
-        <v>77.259104531832</v>
+        <v>82.48569612206</v>
       </c>
       <c r="B11" s="52">
-        <v>17.014</v>
+        <v>18.165</v>
       </c>
       <c r="C11" s="53">
-        <v>71.514848787576</v>
+        <v>71.478521478521</v>
       </c>
       <c r="D11" s="54">
-        <v>15.749</v>
+        <v>15.741</v>
       </c>
       <c r="E11" s="55">
         <v>22.022</v>
@@ -1510,10 +1510,10 @@
     </row>
     <row r="12" spans="1:7" customHeight="1" ht="19">
       <c r="A12" s="35">
-        <v>20.28883562306</v>
+        <v>25.021085933932</v>
       </c>
       <c r="B12" s="52">
-        <v>60.859</v>
+        <v>75.054</v>
       </c>
       <c r="C12" s="53">
         <v>23.316875748009</v>
@@ -1556,10 +1556,10 @@
     </row>
     <row r="14" spans="1:7" customHeight="1" ht="19">
       <c r="A14" s="35">
-        <v>83.589638263459</v>
+        <v>87.671690072142</v>
       </c>
       <c r="B14" s="52">
-        <v>32.559</v>
+        <v>34.149</v>
       </c>
       <c r="C14" s="53">
         <v>78.324048163077</v>
@@ -1579,16 +1579,16 @@
     </row>
     <row r="15" spans="1:7" customHeight="1" ht="19">
       <c r="A15" s="35">
-        <v>59.810450819672</v>
+        <v>66.969774590164</v>
       </c>
       <c r="B15" s="52">
-        <v>14.01</v>
+        <v>15.687</v>
       </c>
       <c r="C15" s="53">
-        <v>51.370389344262</v>
+        <v>51.263661202186</v>
       </c>
       <c r="D15" s="54">
-        <v>12.033</v>
+        <v>12.008</v>
       </c>
       <c r="E15" s="55">
         <v>23.424</v>
@@ -1602,16 +1602,16 @@
     </row>
     <row r="16" spans="1:7" customHeight="1" ht="19">
       <c r="A16" s="35">
-        <v>21.524891866678</v>
+        <v>24.705283690951</v>
       </c>
       <c r="B16" s="52">
-        <v>2.538</v>
+        <v>2.913</v>
       </c>
       <c r="C16" s="53">
-        <v>35.196336188618</v>
+        <v>35.009753201594</v>
       </c>
       <c r="D16" s="54">
-        <v>4.15</v>
+        <v>4.128</v>
       </c>
       <c r="E16" s="55">
         <v>11.791</v>
@@ -1625,16 +1625,16 @@
     </row>
     <row r="17" spans="1:7" customHeight="1" ht="19">
       <c r="A17" s="35">
-        <v>13.280341217526</v>
+        <v>15.412950756107</v>
       </c>
       <c r="B17" s="52">
-        <v>0.685</v>
+        <v>0.795</v>
       </c>
       <c r="C17" s="53">
-        <v>24.932144241954</v>
+        <v>24.893369523071</v>
       </c>
       <c r="D17" s="54">
-        <v>1.286</v>
+        <v>1.284</v>
       </c>
       <c r="E17" s="55">
         <v>5.158</v>
@@ -1671,16 +1671,16 @@
     </row>
     <row r="19" spans="1:7" customHeight="1" ht="19">
       <c r="A19" s="35">
-        <v>23.366418519098</v>
+        <v>28.620930972943</v>
       </c>
       <c r="B19" s="52">
-        <v>112.2208</v>
+        <v>137.4564</v>
       </c>
       <c r="C19" s="53">
-        <v>23.834118350837</v>
+        <v>23.810631332307</v>
       </c>
       <c r="D19" s="54">
-        <v>114.467</v>
+        <v>114.3542</v>
       </c>
       <c r="E19" s="55">
         <v>480.2653</v>
@@ -1719,10 +1719,10 @@
       <c r="A21" s="35"/>
       <c r="B21" s="52"/>
       <c r="C21" s="53">
-        <v>55.300883697193</v>
+        <v>55.340091589675</v>
       </c>
       <c r="D21" s="54">
-        <v>104.37069</v>
+        <v>104.444688</v>
       </c>
       <c r="E21" s="55">
         <v>188.732409</v>
@@ -1736,10 +1736,10 @@
     </row>
     <row r="22" spans="1:7" customHeight="1" ht="19">
       <c r="A22" s="35">
-        <v>12.903102464689</v>
+        <v>12.895200369104</v>
       </c>
       <c r="B22" s="52">
-        <v>50.619</v>
+        <v>50.588</v>
       </c>
       <c r="C22" s="53">
         <v>15.772582787197</v>
@@ -1759,16 +1759,16 @@
     </row>
     <row r="23" spans="1:7" customHeight="1" ht="19">
       <c r="A23" s="35">
-        <v>16.0351934052</v>
+        <v>15.948002536462</v>
       </c>
       <c r="B23" s="52">
-        <v>2.023</v>
+        <v>2.012</v>
       </c>
       <c r="C23" s="53">
-        <v>31.087507926443</v>
+        <v>30.976537729867</v>
       </c>
       <c r="D23" s="54">
-        <v>3.922</v>
+        <v>3.908</v>
       </c>
       <c r="E23" s="55">
         <v>12.616</v>
@@ -1782,16 +1782,16 @@
     </row>
     <row r="24" spans="1:7" customHeight="1" ht="19">
       <c r="A24" s="35">
-        <v>14.568983962343</v>
+        <v>15.424927476987</v>
       </c>
       <c r="B24" s="52">
-        <v>34.81987167</v>
+        <v>36.86557667</v>
       </c>
       <c r="C24" s="53">
-        <v>82.996909939333</v>
+        <v>82.36041634481</v>
       </c>
       <c r="D24" s="54">
-        <v>136.4885858</v>
+        <v>135.4418708</v>
       </c>
       <c r="E24" s="55">
         <v>164.4502017</v>
@@ -1805,16 +1805,16 @@
     </row>
     <row r="25" spans="1:7" customHeight="1" ht="19">
       <c r="A25" s="35">
-        <v>58.83813306852</v>
+        <v>58.540218470705</v>
       </c>
       <c r="B25" s="52">
-        <v>4.74</v>
+        <v>4.716</v>
       </c>
       <c r="C25" s="53">
-        <v>65.856303463021</v>
+        <v>60.329569519546</v>
       </c>
       <c r="D25" s="54">
-        <v>3.078987</v>
+        <v>2.820595</v>
       </c>
       <c r="E25" s="55">
         <v>4.675311</v>
@@ -1828,10 +1828,10 @@
     </row>
     <row r="26" spans="1:7" customHeight="1" ht="19">
       <c r="A26" s="35">
-        <v>15.604362518471</v>
+        <v>15.569302321896</v>
       </c>
       <c r="B26" s="52">
-        <v>7.8778</v>
+        <v>7.8601</v>
       </c>
       <c r="C26" s="53">
         <v>26.925326981739</v>
@@ -1874,16 +1874,16 @@
     </row>
     <row r="28" spans="1:7" customHeight="1" ht="19">
       <c r="A28" s="35">
-        <v>22.748817683314</v>
+        <v>23.958932754466</v>
       </c>
       <c r="B28" s="52">
-        <v>256.962</v>
+        <v>270.631</v>
       </c>
       <c r="C28" s="53">
-        <v>35.405316396975</v>
+        <v>35.634166163522</v>
       </c>
       <c r="D28" s="54">
-        <v>399.925</v>
+        <v>402.51</v>
       </c>
       <c r="E28" s="55">
         <v>1129.562</v>
@@ -1897,16 +1897,16 @@
     </row>
     <row r="29" spans="1:7" customHeight="1" ht="19">
       <c r="A29" s="35">
-        <v>94.178001600226</v>
+        <v>94.860450887184</v>
       </c>
       <c r="B29" s="52">
-        <v>60.03</v>
+        <v>60.465</v>
       </c>
       <c r="C29" s="53">
-        <v>99.507381434242</v>
+        <v>97.202742347939</v>
       </c>
       <c r="D29" s="54">
-        <v>63.427</v>
+        <v>61.958</v>
       </c>
       <c r="E29" s="55">
         <v>63.741</v>
@@ -1920,16 +1920,16 @@
     </row>
     <row r="30" spans="1:7" customHeight="1" ht="19">
       <c r="A30" s="35">
-        <v>38.507179304616</v>
+        <v>41.349234603062</v>
       </c>
       <c r="B30" s="52">
-        <v>25.96</v>
+        <v>27.876</v>
       </c>
       <c r="C30" s="53">
-        <v>42.394980420078</v>
+        <v>42.47063011748</v>
       </c>
       <c r="D30" s="54">
-        <v>28.581</v>
+        <v>28.632</v>
       </c>
       <c r="E30" s="55">
         <v>67.416</v>
@@ -1943,16 +1943,16 @@
     </row>
     <row r="31" spans="1:7" customHeight="1" ht="19">
       <c r="A31" s="35">
-        <v>85.310424054743</v>
+        <v>91.930972478897</v>
       </c>
       <c r="B31" s="52">
-        <v>34.16</v>
+        <v>36.811</v>
       </c>
       <c r="C31" s="53">
-        <v>98.626442235653</v>
+        <v>96.908246341342</v>
       </c>
       <c r="D31" s="54">
-        <v>39.492</v>
+        <v>38.804</v>
       </c>
       <c r="E31" s="55">
         <v>40.042</v>
@@ -1966,10 +1966,10 @@
     </row>
     <row r="32" spans="1:7" customHeight="1" ht="19">
       <c r="A32" s="35">
-        <v>30.861322502691</v>
+        <v>31.630649237835</v>
       </c>
       <c r="B32" s="52">
-        <v>66.791</v>
+        <v>68.456</v>
       </c>
       <c r="C32" s="53">
         <v>33.734399763426</v>
@@ -1989,16 +1989,16 @@
     </row>
     <row r="33" spans="1:7" customHeight="1" ht="19">
       <c r="A33" s="35">
-        <v>49.25840059144</v>
+        <v>53.234067295582</v>
       </c>
       <c r="B33" s="52">
-        <v>1735.005</v>
+        <v>1875.038</v>
       </c>
       <c r="C33" s="53">
-        <v>56.931360958841</v>
+        <v>57.106249070197</v>
       </c>
       <c r="D33" s="54">
-        <v>2005.266</v>
+        <v>2011.426</v>
       </c>
       <c r="E33" s="55">
         <v>3522.252</v>
@@ -2012,10 +2012,10 @@
     </row>
     <row r="34" spans="1:7" customHeight="1" ht="19">
       <c r="A34" s="35">
-        <v>49.429739898577</v>
+        <v>50.041550793391</v>
       </c>
       <c r="B34" s="52">
-        <v>75.541</v>
+        <v>76.476</v>
       </c>
       <c r="C34" s="53">
         <v>47.953541632586</v>
@@ -2058,10 +2058,10 @@
     </row>
     <row r="36" spans="1:7" customHeight="1" ht="19">
       <c r="A36" s="35">
-        <v>41.21796487541</v>
+        <v>41.446235662074</v>
       </c>
       <c r="B36" s="52">
-        <v>116.104</v>
+        <v>116.747</v>
       </c>
       <c r="C36" s="53">
         <v>39.831654732447</v>
@@ -2081,16 +2081,16 @@
     </row>
     <row r="37" spans="1:7" customHeight="1" ht="19">
       <c r="A37" s="35">
-        <v>52.159772935576</v>
+        <v>52.700824882476</v>
       </c>
       <c r="B37" s="52">
-        <v>17.642</v>
+        <v>17.825</v>
       </c>
       <c r="C37" s="53">
-        <v>66.463648996245</v>
+        <v>66.620347101085</v>
       </c>
       <c r="D37" s="54">
-        <v>22.48</v>
+        <v>22.533</v>
       </c>
       <c r="E37" s="55">
         <v>33.823</v>
@@ -2127,16 +2127,16 @@
     </row>
     <row r="39" spans="1:7" customHeight="1" ht="19">
       <c r="A39" s="35">
-        <v>26.756587073292</v>
+        <v>27.374977943922</v>
       </c>
       <c r="B39" s="52">
-        <v>260.82</v>
+        <v>266.848</v>
       </c>
       <c r="C39" s="53">
-        <v>61.79251283356</v>
+        <v>61.826571521192</v>
       </c>
       <c r="D39" s="54">
-        <v>602.346</v>
+        <v>602.678</v>
       </c>
       <c r="E39" s="55">
         <v>974.788</v>
@@ -2150,10 +2150,10 @@
     </row>
     <row r="40" spans="1:7" customHeight="1" ht="19">
       <c r="A40" s="35">
-        <v>30.673430496283</v>
+        <v>31.143140886276</v>
       </c>
       <c r="B40" s="52">
-        <v>11.428</v>
+        <v>11.603</v>
       </c>
       <c r="C40" s="53">
         <v>36.377056660493</v>
@@ -2173,16 +2173,16 @@
     </row>
     <row r="41" spans="1:7" customHeight="1" ht="19">
       <c r="A41" s="35">
-        <v>35.408490902604</v>
+        <v>35.586871209418</v>
       </c>
       <c r="B41" s="52">
-        <v>19.85</v>
+        <v>19.95</v>
       </c>
       <c r="C41" s="53">
-        <v>41.853371387799</v>
+        <v>41.787370674278</v>
       </c>
       <c r="D41" s="54">
-        <v>23.463</v>
+        <v>23.426</v>
       </c>
       <c r="E41" s="55">
         <v>56.06</v>
@@ -2196,10 +2196,10 @@
     </row>
     <row r="42" spans="1:7" customHeight="1" ht="19">
       <c r="A42" s="35">
-        <v>11.500142328494</v>
+        <v>11.592655849701</v>
       </c>
       <c r="B42" s="52">
-        <v>1.616</v>
+        <v>1.629</v>
       </c>
       <c r="C42" s="53">
         <v>16.104469114717</v>
@@ -2219,16 +2219,16 @@
     </row>
     <row r="43" spans="1:7" customHeight="1" ht="19">
       <c r="A43" s="35">
-        <v>4.3284024377103</v>
+        <v>4.8540187497755</v>
       </c>
       <c r="B43" s="52">
-        <v>28.921</v>
+        <v>32.433</v>
       </c>
       <c r="C43" s="53">
-        <v>18.510314771135</v>
+        <v>18.623160642234</v>
       </c>
       <c r="D43" s="54">
-        <v>123.68</v>
+        <v>124.434</v>
       </c>
       <c r="E43" s="55">
         <v>668.168</v>
@@ -2242,16 +2242,16 @@
     </row>
     <row r="44" spans="1:7" customHeight="1" ht="19">
       <c r="A44" s="35">
-        <v>1.8075696849785</v>
+        <v>1.9386577232232</v>
       </c>
       <c r="B44" s="52">
-        <v>48.027</v>
+        <v>51.51</v>
       </c>
       <c r="C44" s="53">
-        <v>4.3730261991657</v>
+        <v>4.3797631382544</v>
       </c>
       <c r="D44" s="54">
-        <v>116.191</v>
+        <v>116.37</v>
       </c>
       <c r="E44" s="55">
         <v>2656.993</v>
@@ -2265,16 +2265,16 @@
     </row>
     <row r="45" spans="1:7" customHeight="1" ht="19">
       <c r="A45" s="35">
-        <v>24.491395453274</v>
+        <v>24.611715062829</v>
       </c>
       <c r="B45" s="52">
-        <v>57.809</v>
+        <v>58.093</v>
       </c>
       <c r="C45" s="53">
-        <v>20.911887069031</v>
+        <v>20.815716113507</v>
       </c>
       <c r="D45" s="54">
-        <v>49.36</v>
+        <v>49.133</v>
       </c>
       <c r="E45" s="55">
         <v>236.038</v>
@@ -2294,10 +2294,10 @@
         <v>2.449</v>
       </c>
       <c r="C46" s="53">
-        <v>94.16088199265</v>
+        <v>87.423438138016</v>
       </c>
       <c r="D46" s="54">
-        <v>2.306</v>
+        <v>2.141</v>
       </c>
       <c r="E46" s="55">
         <v>2.449</v>
@@ -2311,16 +2311,16 @@
     </row>
     <row r="47" spans="1:7" customHeight="1" ht="19">
       <c r="A47" s="35">
-        <v>48.591036414566</v>
+        <v>48.789915966387</v>
       </c>
       <c r="B47" s="52">
-        <v>69.388</v>
+        <v>69.672</v>
       </c>
       <c r="C47" s="53">
-        <v>54.464285714286</v>
+        <v>54.572128851541</v>
       </c>
       <c r="D47" s="54">
-        <v>77.775</v>
+        <v>77.929</v>
       </c>
       <c r="E47" s="55">
         <v>142.8</v>
@@ -2334,16 +2334,16 @@
     </row>
     <row r="48" spans="1:7" customHeight="1" ht="19">
       <c r="A48" s="35">
-        <v>79.557195571956</v>
+        <v>68.929889298893</v>
       </c>
       <c r="B48" s="52">
-        <v>1.078</v>
+        <v>0.934</v>
       </c>
       <c r="C48" s="53">
-        <v>92.10332103321</v>
+        <v>89.815498154982</v>
       </c>
       <c r="D48" s="54">
-        <v>1.248</v>
+        <v>1.217</v>
       </c>
       <c r="E48" s="55">
         <v>1.355</v>
@@ -2357,16 +2357,16 @@
     </row>
     <row r="49" spans="1:7" customHeight="1" ht="19">
       <c r="A49" s="35">
-        <v>19.245637080128</v>
+        <v>19.080502908613</v>
       </c>
       <c r="B49" s="52">
-        <v>10.256</v>
+        <v>10.168</v>
       </c>
       <c r="C49" s="53">
-        <v>17.584912741603</v>
+        <v>17.461062112967</v>
       </c>
       <c r="D49" s="54">
-        <v>9.371</v>
+        <v>9.305</v>
       </c>
       <c r="E49" s="55">
         <v>53.29</v>
@@ -2380,16 +2380,16 @@
     </row>
     <row r="50" spans="1:7" customHeight="1" ht="19">
       <c r="A50" s="35">
-        <v>69.463522094078</v>
+        <v>72.411558895944</v>
       </c>
       <c r="B50" s="52">
-        <v>10.721</v>
+        <v>11.176</v>
       </c>
       <c r="C50" s="53">
-        <v>94.738888168978</v>
+        <v>94.674096151354</v>
       </c>
       <c r="D50" s="54">
-        <v>14.622</v>
+        <v>14.612</v>
       </c>
       <c r="E50" s="55">
         <v>15.434</v>
@@ -2403,16 +2403,16 @@
     </row>
     <row r="51" spans="1:7" customHeight="1" ht="19">
       <c r="A51" s="35">
-        <v>85.87992673887</v>
+        <v>86.234695201973</v>
       </c>
       <c r="B51" s="52">
-        <v>59.55</v>
+        <v>59.796</v>
       </c>
       <c r="C51" s="53">
-        <v>60.53128740572</v>
+        <v>60.648101411863</v>
       </c>
       <c r="D51" s="54">
-        <v>41.973</v>
+        <v>42.054</v>
       </c>
       <c r="E51" s="55">
         <v>69.341</v>
@@ -2426,16 +2426,16 @@
     </row>
     <row r="52" spans="1:7" customHeight="1" ht="19">
       <c r="A52" s="35">
-        <v>43.487104637983</v>
+        <v>44.325574895579</v>
       </c>
       <c r="B52" s="52">
-        <v>28.007</v>
+        <v>28.547</v>
       </c>
       <c r="C52" s="53">
-        <v>65.888235020108</v>
+        <v>65.833889725634</v>
       </c>
       <c r="D52" s="54">
-        <v>42.434</v>
+        <v>42.399</v>
       </c>
       <c r="E52" s="55">
         <v>64.403</v>
@@ -2449,16 +2449,16 @@
     </row>
     <row r="53" spans="1:7" customHeight="1" ht="19">
       <c r="A53" s="35">
-        <v>25.613826440574</v>
+        <v>25.585692728714</v>
       </c>
       <c r="B53" s="52">
-        <v>80.118</v>
+        <v>80.03</v>
       </c>
       <c r="C53" s="53">
-        <v>65.022443029233</v>
+        <v>64.901276247474</v>
       </c>
       <c r="D53" s="54">
-        <v>203.385</v>
+        <v>203.006</v>
       </c>
       <c r="E53" s="55">
         <v>312.792</v>
@@ -2472,16 +2472,16 @@
     </row>
     <row r="54" spans="1:7" customHeight="1" ht="19">
       <c r="A54" s="35">
-        <v>14.703750008417</v>
+        <v>14.682426563177</v>
       </c>
       <c r="B54" s="52">
-        <v>65.508</v>
+        <v>65.413</v>
       </c>
       <c r="C54" s="53">
-        <v>43.816088651662</v>
+        <v>43.768728157497</v>
       </c>
       <c r="D54" s="54">
-        <v>195.209</v>
+        <v>194.998</v>
       </c>
       <c r="E54" s="55">
         <v>445.519</v>
@@ -2518,16 +2518,16 @@
     </row>
     <row r="56" spans="1:7" customHeight="1" ht="19">
       <c r="A56" s="35">
-        <v>73.245614035088</v>
+        <v>90.789473684211</v>
       </c>
       <c r="B56" s="52">
-        <v>0.167</v>
+        <v>0.207</v>
       </c>
       <c r="C56" s="53">
-        <v>64.035087719298</v>
+        <v>61.842105263158</v>
       </c>
       <c r="D56" s="54">
-        <v>0.146</v>
+        <v>0.141</v>
       </c>
       <c r="E56" s="55">
         <v>0.228</v>
@@ -2541,10 +2541,10 @@
     </row>
     <row r="57" spans="1:7" customHeight="1" ht="19">
       <c r="A57" s="35">
-        <v>26.132404181185</v>
+        <v>26.193892191023</v>
       </c>
       <c r="B57" s="52">
-        <v>2.55</v>
+        <v>2.556</v>
       </c>
       <c r="C57" s="53">
         <v>16.253330600533</v>
@@ -2564,10 +2564,10 @@
     </row>
     <row r="58" spans="1:7" customHeight="1" ht="19">
       <c r="A58" s="35">
-        <v>15.972833605836</v>
+        <v>16.121242610992</v>
       </c>
       <c r="B58" s="52">
-        <v>6.35</v>
+        <v>6.409</v>
       </c>
       <c r="C58" s="53">
         <v>9.0906804175575</v>
@@ -2587,16 +2587,16 @@
     </row>
     <row r="59" spans="1:7" customHeight="1" ht="19">
       <c r="A59" s="35">
-        <v>22.437165595072</v>
+        <v>22.623757924554</v>
       </c>
       <c r="B59" s="52">
-        <v>19.961</v>
+        <v>20.127</v>
       </c>
       <c r="C59" s="53">
-        <v>64.069736073018</v>
+        <v>63.924733600108</v>
       </c>
       <c r="D59" s="54">
-        <v>56.999</v>
+        <v>56.87</v>
       </c>
       <c r="E59" s="55">
         <v>88.964</v>
@@ -2610,10 +2610,10 @@
     </row>
     <row r="60" spans="1:7" customHeight="1" ht="19">
       <c r="A60" s="35">
-        <v>12.164558656227</v>
+        <v>12.330188047915</v>
       </c>
       <c r="B60" s="52">
-        <v>36.355</v>
+        <v>36.85</v>
       </c>
       <c r="C60" s="53">
         <v>14.790202770528</v>
@@ -2633,16 +2633,16 @@
     </row>
     <row r="61" spans="1:7" customHeight="1" ht="19">
       <c r="A61" s="35">
-        <v>27.690846649072</v>
+        <v>27.892929315238</v>
       </c>
       <c r="B61" s="52">
-        <v>25.076</v>
+        <v>25.259</v>
       </c>
       <c r="C61" s="53">
-        <v>50.235763110527</v>
+        <v>50.190487759091</v>
       </c>
       <c r="D61" s="54">
-        <v>45.492</v>
+        <v>45.451</v>
       </c>
       <c r="E61" s="55">
         <v>90.557</v>
@@ -2656,16 +2656,16 @@
     </row>
     <row r="62" spans="1:7" customHeight="1" ht="19">
       <c r="A62" s="35">
-        <v>38.227087357802</v>
+        <v>38.184159690921</v>
       </c>
       <c r="B62" s="52">
-        <v>1.781</v>
+        <v>1.779</v>
       </c>
       <c r="C62" s="53">
-        <v>21.807254775703</v>
+        <v>21.764327108822</v>
       </c>
       <c r="D62" s="54">
-        <v>1.016</v>
+        <v>1.014</v>
       </c>
       <c r="E62" s="55">
         <v>4.659</v>
@@ -2685,10 +2685,10 @@
         <v>19.38</v>
       </c>
       <c r="C63" s="53">
-        <v>61.949824829863</v>
+        <v>61.909555832964</v>
       </c>
       <c r="D63" s="54">
-        <v>15.384</v>
+        <v>15.374</v>
       </c>
       <c r="E63" s="55">
         <v>24.833</v>
@@ -2702,16 +2702,16 @@
     </row>
     <row r="64" spans="1:7" customHeight="1" ht="19">
       <c r="A64" s="35">
-        <v>89.865996649916</v>
+        <v>95.70072585148</v>
       </c>
       <c r="B64" s="52">
-        <v>12.876</v>
+        <v>13.712</v>
       </c>
       <c r="C64" s="53">
-        <v>79.99022892239</v>
+        <v>78.601340033501</v>
       </c>
       <c r="D64" s="54">
-        <v>11.461</v>
+        <v>11.262</v>
       </c>
       <c r="E64" s="55">
         <v>14.328</v>
@@ -2725,10 +2725,10 @@
     </row>
     <row r="65" spans="1:7" customHeight="1" ht="19">
       <c r="A65" s="35">
-        <v>32.472912683238</v>
+        <v>36.902485659656</v>
       </c>
       <c r="B65" s="52">
-        <v>3.057</v>
+        <v>3.474</v>
       </c>
       <c r="C65" s="53">
         <v>2.7937114935203</v>
@@ -2748,16 +2748,16 @@
     </row>
     <row r="66" spans="1:7" customHeight="1" ht="19">
       <c r="A66" s="35">
-        <v>28.499556081681</v>
+        <v>46.019532406037</v>
       </c>
       <c r="B66" s="52">
-        <v>1.926</v>
+        <v>3.11</v>
       </c>
       <c r="C66" s="53">
-        <v>86.549274933412</v>
+        <v>85.557857354247</v>
       </c>
       <c r="D66" s="54">
-        <v>5.849</v>
+        <v>5.782</v>
       </c>
       <c r="E66" s="55">
         <v>6.758</v>
@@ -2790,10 +2790,10 @@
     </row>
     <row r="68" spans="1:7" customHeight="1" ht="19">
       <c r="A68" s="35">
-        <v>71.090909090909</v>
+        <v>66</v>
       </c>
       <c r="B68" s="52">
-        <v>0.782</v>
+        <v>0.726</v>
       </c>
       <c r="C68" s="53">
         <v>100</v>
@@ -2813,16 +2813,16 @@
     </row>
     <row r="69" spans="1:7" customHeight="1" ht="19">
       <c r="A69" s="35">
-        <v>8.2437408679856</v>
+        <v>8.2817497926786</v>
       </c>
       <c r="B69" s="52">
-        <v>100.203</v>
+        <v>100.665</v>
       </c>
       <c r="C69" s="53">
-        <v>11.372730982374</v>
+        <v>11.458868090932</v>
       </c>
       <c r="D69" s="54">
-        <v>138.236</v>
+        <v>139.283</v>
       </c>
       <c r="E69" s="55">
         <v>1215.504</v>
@@ -2838,10 +2838,10 @@
       <c r="A70" s="35"/>
       <c r="B70" s="52"/>
       <c r="C70" s="53">
-        <v>35.104500564562</v>
+        <v>35.072882139751</v>
       </c>
       <c r="D70" s="54">
-        <v>78.695954</v>
+        <v>78.625073</v>
       </c>
       <c r="E70" s="55">
         <v>224.176253</v>
@@ -2887,10 +2887,10 @@
     </row>
     <row r="73" spans="1:7" customHeight="1" ht="19">
       <c r="A73" s="35">
-        <v>31.628053561875</v>
+        <v>31.607637888777</v>
       </c>
       <c r="B73" s="52">
-        <v>88.6145</v>
+        <v>88.5573</v>
       </c>
       <c r="C73" s="53">
         <v>19.487331039782</v>
@@ -2910,16 +2910,16 @@
     </row>
     <row r="74" spans="1:7" customHeight="1" ht="26.25">
       <c r="A74" s="38">
-        <v>28.941272006812</v>
+        <v>30.655276651713</v>
       </c>
       <c r="B74" s="39">
-        <v>4665.95537167</v>
+        <v>4942.28977667</v>
       </c>
       <c r="C74" s="40">
-        <v>38.268976478356</v>
+        <v>38.306526422121</v>
       </c>
       <c r="D74" s="41">
-        <v>6414.7359568</v>
+        <v>6421.0301668</v>
       </c>
       <c r="E74" s="42">
         <v>16762.2354897</v>
